--- a/WorkBot/refactor/data/orders/Keck's Food Service/Keck's Food Service_Bakery_2025-08-10.xlsx
+++ b/WorkBot/refactor/data/orders/Keck's Food Service/Keck's Food Service_Bakery_2025-08-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,168 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>124440</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8 Grain</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>108900</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Seeds - Poppy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>103.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>146200</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sugar - Donut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>195.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4100860</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boston Coffee Cake - Cinnamon Walnut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>173.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4100870</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boston Coffee Cake - Blueberry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>231.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4100760</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boston Coffee Cake - Apple Cinnamon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>167.40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
